--- a/Code/Results/Cases/Case_2_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_91/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007724331815265</v>
+        <v>1.036857507403616</v>
       </c>
       <c r="D2">
-        <v>1.030843998878912</v>
+        <v>1.046780663854478</v>
       </c>
       <c r="E2">
-        <v>1.028485371674385</v>
+        <v>1.054116006506777</v>
       </c>
       <c r="F2">
-        <v>1.037610703207273</v>
+        <v>1.060033889811393</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053618554240794</v>
+        <v>1.040516035518783</v>
       </c>
       <c r="J2">
-        <v>1.02967643870259</v>
+        <v>1.041963539277031</v>
       </c>
       <c r="K2">
-        <v>1.041889722352984</v>
+        <v>1.049545140608949</v>
       </c>
       <c r="L2">
-        <v>1.039561626936208</v>
+        <v>1.056860104761352</v>
       </c>
       <c r="M2">
-        <v>1.048569795611727</v>
+        <v>1.062761770054698</v>
       </c>
       <c r="N2">
-        <v>1.031138697351086</v>
+        <v>1.043443247017693</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012406577300175</v>
+        <v>1.037838452201062</v>
       </c>
       <c r="D3">
-        <v>1.034493857515532</v>
+        <v>1.047557477096394</v>
       </c>
       <c r="E3">
-        <v>1.032589082509349</v>
+        <v>1.055050238333114</v>
       </c>
       <c r="F3">
-        <v>1.041769935947838</v>
+        <v>1.060955706145722</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055077130352084</v>
+        <v>1.040734733412392</v>
       </c>
       <c r="J3">
-        <v>1.032564646976107</v>
+        <v>1.042588464149037</v>
       </c>
       <c r="K3">
-        <v>1.044703615859726</v>
+        <v>1.050133756142794</v>
       </c>
       <c r="L3">
-        <v>1.042821292314407</v>
+        <v>1.057607206240048</v>
       </c>
       <c r="M3">
-        <v>1.051894865593388</v>
+        <v>1.063497661035381</v>
       </c>
       <c r="N3">
-        <v>1.034031007211633</v>
+        <v>1.044069059354697</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015371989968321</v>
+        <v>1.03847339291383</v>
       </c>
       <c r="D4">
-        <v>1.036806356786538</v>
+        <v>1.048060021635597</v>
       </c>
       <c r="E4">
-        <v>1.035197432961838</v>
+        <v>1.055655649520737</v>
       </c>
       <c r="F4">
-        <v>1.044409427693515</v>
+        <v>1.061552624565994</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055987181430961</v>
+        <v>1.040874576144315</v>
       </c>
       <c r="J4">
-        <v>1.034390488053273</v>
+        <v>1.042992433698688</v>
       </c>
       <c r="K4">
-        <v>1.046479964091602</v>
+        <v>1.050513865539294</v>
       </c>
       <c r="L4">
-        <v>1.044888833652219</v>
+        <v>1.058090902661315</v>
       </c>
       <c r="M4">
-        <v>1.053999861191381</v>
+        <v>1.06397364162705</v>
       </c>
       <c r="N4">
-        <v>1.035859441192556</v>
+        <v>1.044473602587445</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016603811436535</v>
+        <v>1.038740370155439</v>
       </c>
       <c r="D5">
-        <v>1.03776712485316</v>
+        <v>1.048271264894498</v>
       </c>
       <c r="E5">
-        <v>1.036283119802467</v>
+        <v>1.055910378798995</v>
       </c>
       <c r="F5">
-        <v>1.045507084374951</v>
+        <v>1.061803673575277</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056361870777925</v>
+        <v>1.040932965770764</v>
       </c>
       <c r="J5">
-        <v>1.035148095357918</v>
+        <v>1.043162166294804</v>
       </c>
       <c r="K5">
-        <v>1.04721641503289</v>
+        <v>1.05067347965812</v>
       </c>
       <c r="L5">
-        <v>1.045748375128807</v>
+        <v>1.058294312682875</v>
       </c>
       <c r="M5">
-        <v>1.054874005507549</v>
+        <v>1.06417369731897</v>
       </c>
       <c r="N5">
-        <v>1.036618124386472</v>
+        <v>1.044643576223315</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016809785276779</v>
+        <v>1.03878519961518</v>
       </c>
       <c r="D6">
-        <v>1.037927783638523</v>
+        <v>1.048306731980527</v>
       </c>
       <c r="E6">
-        <v>1.036464785454032</v>
+        <v>1.05595316150357</v>
       </c>
       <c r="F6">
-        <v>1.045690694680239</v>
+        <v>1.061845831901415</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056424324861514</v>
+        <v>1.040942746157349</v>
       </c>
       <c r="J6">
-        <v>1.035274725038783</v>
+        <v>1.043190659480776</v>
       </c>
       <c r="K6">
-        <v>1.047339471605509</v>
+        <v>1.050700268761966</v>
       </c>
       <c r="L6">
-        <v>1.045892139037374</v>
+        <v>1.058328469846404</v>
       </c>
       <c r="M6">
-        <v>1.055020154894272</v>
+        <v>1.064207284789912</v>
       </c>
       <c r="N6">
-        <v>1.036744933896009</v>
+        <v>1.04467210987288</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01538850721155</v>
+        <v>1.038476960088331</v>
       </c>
       <c r="D7">
-        <v>1.036819238956173</v>
+        <v>1.048062844383858</v>
       </c>
       <c r="E7">
-        <v>1.035211982140884</v>
+        <v>1.055659052384852</v>
       </c>
       <c r="F7">
-        <v>1.044424141192531</v>
+        <v>1.061555978686043</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055992218839488</v>
+        <v>1.040875357922851</v>
       </c>
       <c r="J7">
-        <v>1.034400650022525</v>
+        <v>1.042994702052926</v>
       </c>
       <c r="K7">
-        <v>1.04648984475852</v>
+        <v>1.050515999034611</v>
       </c>
       <c r="L7">
-        <v>1.044900356397095</v>
+        <v>1.058093620385612</v>
       </c>
       <c r="M7">
-        <v>1.054011583522613</v>
+        <v>1.063976314965219</v>
       </c>
       <c r="N7">
-        <v>1.03586961759297</v>
+        <v>1.044475874163006</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009320380906529</v>
+        <v>1.03718897970506</v>
       </c>
       <c r="D8">
-        <v>1.032087904070647</v>
+        <v>1.047043212671406</v>
       </c>
       <c r="E8">
-        <v>1.029882220281151</v>
+        <v>1.054431547292069</v>
       </c>
       <c r="F8">
-        <v>1.039027321204764</v>
+        <v>1.060345329787907</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054118587094814</v>
+        <v>1.04059029080638</v>
       </c>
       <c r="J8">
-        <v>1.030661630524213</v>
+        <v>1.042174817640416</v>
       </c>
       <c r="K8">
-        <v>1.042850082313614</v>
+        <v>1.049744223669719</v>
       </c>
       <c r="L8">
-        <v>1.040672077381341</v>
+        <v>1.05711253430876</v>
       </c>
       <c r="M8">
-        <v>1.049703371407051</v>
+        <v>1.063010506588254</v>
       </c>
       <c r="N8">
-        <v>1.032125288258099</v>
+        <v>1.043654825420587</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9981083336076083</v>
+        <v>1.03492098243166</v>
       </c>
       <c r="D9">
-        <v>1.023356098812542</v>
+        <v>1.045245734991427</v>
       </c>
       <c r="E9">
-        <v>1.020111618479317</v>
+        <v>1.052275478659146</v>
       </c>
       <c r="F9">
-        <v>1.029100759591169</v>
+        <v>1.058215447420282</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0505498358669</v>
+        <v>1.040075206248577</v>
       </c>
       <c r="J9">
-        <v>1.02372806879036</v>
+        <v>1.040727057215955</v>
       </c>
       <c r="K9">
-        <v>1.036081273430533</v>
+        <v>1.048378444068919</v>
       </c>
       <c r="L9">
-        <v>1.032886613295582</v>
+        <v>1.055385862065512</v>
       </c>
       <c r="M9">
-        <v>1.041738704102644</v>
+        <v>1.06130721880536</v>
       </c>
       <c r="N9">
-        <v>1.025181880071293</v>
+        <v>1.042205009010264</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9902446594475031</v>
+        <v>1.033410087386366</v>
       </c>
       <c r="D10">
-        <v>1.017243141819185</v>
+        <v>1.04404697699615</v>
       </c>
       <c r="E10">
-        <v>1.013315304798477</v>
+        <v>1.050842844948392</v>
       </c>
       <c r="F10">
-        <v>1.022173316045549</v>
+        <v>1.056797906346614</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047977986454766</v>
+        <v>1.039723271634587</v>
       </c>
       <c r="J10">
-        <v>1.018850744047089</v>
+        <v>1.039759897596977</v>
       </c>
       <c r="K10">
-        <v>1.031307892219185</v>
+        <v>1.047464068911248</v>
       </c>
       <c r="L10">
-        <v>1.027448238249057</v>
+        <v>1.054236236732658</v>
       </c>
       <c r="M10">
-        <v>1.036153441837505</v>
+        <v>1.060170805906565</v>
       </c>
       <c r="N10">
-        <v>1.020297628967449</v>
+        <v>1.041236475913692</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9867376238104026</v>
+        <v>1.03275612145195</v>
       </c>
       <c r="D11">
-        <v>1.014520545464882</v>
+        <v>1.043527811382191</v>
       </c>
       <c r="E11">
-        <v>1.010298667238809</v>
+        <v>1.05022363887991</v>
       </c>
       <c r="F11">
-        <v>1.019093021908854</v>
+        <v>1.056184674435993</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046815466908841</v>
+        <v>1.03956886021862</v>
       </c>
       <c r="J11">
-        <v>1.016672733994699</v>
+        <v>1.039340644583111</v>
       </c>
       <c r="K11">
-        <v>1.029173724258014</v>
+        <v>1.047067230603705</v>
       </c>
       <c r="L11">
-        <v>1.025028944530447</v>
+        <v>1.053738801750469</v>
       </c>
       <c r="M11">
-        <v>1.033663635879431</v>
+        <v>1.05967852829511</v>
       </c>
       <c r="N11">
-        <v>1.018116525890965</v>
+        <v>1.040816627512457</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9854187288641919</v>
+        <v>1.032513249135847</v>
       </c>
       <c r="D12">
-        <v>1.013497295253125</v>
+        <v>1.043334956891971</v>
       </c>
       <c r="E12">
-        <v>1.009166448289298</v>
+        <v>1.049993809651554</v>
       </c>
       <c r="F12">
-        <v>1.017936084066317</v>
+        <v>1.055956979954021</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046376015989329</v>
+        <v>1.03951120175398</v>
       </c>
       <c r="J12">
-        <v>1.015853276095445</v>
+        <v>1.039184845911267</v>
       </c>
       <c r="K12">
-        <v>1.028370397719862</v>
+        <v>1.046919691597312</v>
       </c>
       <c r="L12">
-        <v>1.024120115766251</v>
+        <v>1.05355408733167</v>
       </c>
       <c r="M12">
-        <v>1.03272753971598</v>
+        <v>1.059495644857996</v>
       </c>
       <c r="N12">
-        <v>1.0172959042675</v>
+        <v>1.040660607588629</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9857023857444697</v>
+        <v>1.032565344266123</v>
       </c>
       <c r="D13">
-        <v>1.013717336931886</v>
+        <v>1.043376325417755</v>
       </c>
       <c r="E13">
-        <v>1.009409853217629</v>
+        <v>1.050043101023328</v>
       </c>
       <c r="F13">
-        <v>1.018184840577645</v>
+        <v>1.056005817231681</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046470630358413</v>
+        <v>1.039523583402272</v>
       </c>
       <c r="J13">
-        <v>1.016029534121954</v>
+        <v>1.039218268386865</v>
       </c>
       <c r="K13">
-        <v>1.028543202093384</v>
+        <v>1.046951345337902</v>
       </c>
       <c r="L13">
-        <v>1.024315532631478</v>
+        <v>1.053593706693885</v>
       </c>
       <c r="M13">
-        <v>1.03292885486796</v>
+        <v>1.059534875301175</v>
       </c>
       <c r="N13">
-        <v>1.017472412600623</v>
+        <v>1.040694077527975</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9866289399838669</v>
+        <v>1.032736044737052</v>
       </c>
       <c r="D14">
-        <v>1.014436210767973</v>
+        <v>1.04351187023424</v>
       </c>
       <c r="E14">
-        <v>1.010205320189918</v>
+        <v>1.050204637619573</v>
       </c>
       <c r="F14">
-        <v>1.018997653746963</v>
+        <v>1.056165851354774</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046779299375754</v>
+        <v>1.039564100334015</v>
       </c>
       <c r="J14">
-        <v>1.016605213613185</v>
+        <v>1.039327767628978</v>
       </c>
       <c r="K14">
-        <v>1.029107540299823</v>
+        <v>1.047055037744776</v>
       </c>
       <c r="L14">
-        <v>1.024954031542381</v>
+        <v>1.053723532069905</v>
       </c>
       <c r="M14">
-        <v>1.033586491141008</v>
+        <v>1.059663411691861</v>
       </c>
       <c r="N14">
-        <v>1.018048909622764</v>
+        <v>1.040803732271573</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.987197642513347</v>
+        <v>1.032841224211698</v>
       </c>
       <c r="D15">
-        <v>1.014877529869154</v>
+        <v>1.0435953821437</v>
       </c>
       <c r="E15">
-        <v>1.010693863300044</v>
+        <v>1.050304188404091</v>
       </c>
       <c r="F15">
-        <v>1.019496740822329</v>
+        <v>1.056264465241622</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046968459095633</v>
+        <v>1.039589023992363</v>
       </c>
       <c r="J15">
-        <v>1.016958508159411</v>
+        <v>1.039395224544654</v>
       </c>
       <c r="K15">
-        <v>1.029453827441413</v>
+        <v>1.047118908115899</v>
       </c>
       <c r="L15">
-        <v>1.02534606483181</v>
+        <v>1.053803529095821</v>
       </c>
       <c r="M15">
-        <v>1.033990171818124</v>
+        <v>1.059742603308215</v>
       </c>
       <c r="N15">
-        <v>1.018402705887768</v>
+        <v>1.040871284983806</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9904751853018225</v>
+        <v>1.033453494501337</v>
       </c>
       <c r="D16">
-        <v>1.017422188243589</v>
+        <v>1.04408143038861</v>
       </c>
       <c r="E16">
-        <v>1.013513902546033</v>
+        <v>1.050883963600487</v>
       </c>
       <c r="F16">
-        <v>1.022375990180047</v>
+        <v>1.056838616690245</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048054084345297</v>
+        <v>1.039733476866077</v>
       </c>
       <c r="J16">
-        <v>1.018993855486653</v>
+        <v>1.039787712265592</v>
       </c>
       <c r="K16">
-        <v>1.03144807123848</v>
+        <v>1.047490386704309</v>
       </c>
       <c r="L16">
-        <v>1.027607398060358</v>
+        <v>1.054269257527076</v>
       </c>
       <c r="M16">
-        <v>1.036317132575146</v>
+        <v>1.060203472546277</v>
       </c>
       <c r="N16">
-        <v>1.020440943641673</v>
+        <v>1.041264330082326</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9925031753290736</v>
+        <v>1.033837625829864</v>
       </c>
       <c r="D17">
-        <v>1.018997727951647</v>
+        <v>1.044386290810365</v>
       </c>
       <c r="E17">
-        <v>1.015262659242882</v>
+        <v>1.051247945613132</v>
       </c>
       <c r="F17">
-        <v>1.024160019005183</v>
+        <v>1.057198920843772</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048721777732646</v>
+        <v>1.039823547506007</v>
       </c>
       <c r="J17">
-        <v>1.020252525380292</v>
+        <v>1.040033785005863</v>
       </c>
       <c r="K17">
-        <v>1.032680660449203</v>
+        <v>1.047723162923429</v>
       </c>
       <c r="L17">
-        <v>1.029008268294211</v>
+        <v>1.054561493813851</v>
       </c>
       <c r="M17">
-        <v>1.037757293612983</v>
+        <v>1.060492509867132</v>
       </c>
       <c r="N17">
-        <v>1.021701400990932</v>
+        <v>1.041510752274113</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9936762890479003</v>
+        <v>1.03406170834437</v>
       </c>
       <c r="D18">
-        <v>1.019909457036842</v>
+        <v>1.044564101450759</v>
       </c>
       <c r="E18">
-        <v>1.01627560393205</v>
+        <v>1.05146035948037</v>
       </c>
       <c r="F18">
-        <v>1.025192876793924</v>
+        <v>1.057409135346538</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049106535597695</v>
+        <v>1.039875889116401</v>
       </c>
       <c r="J18">
-        <v>1.020980345817152</v>
+        <v>1.040177270016233</v>
       </c>
       <c r="K18">
-        <v>1.033393154386997</v>
+        <v>1.047858849707751</v>
       </c>
       <c r="L18">
-        <v>1.029819191089422</v>
+        <v>1.054731985003545</v>
       </c>
       <c r="M18">
-        <v>1.038590470171888</v>
+        <v>1.060661080765654</v>
       </c>
       <c r="N18">
-        <v>1.022430255016295</v>
+        <v>1.041654441049656</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9940746581253381</v>
+        <v>1.034138118953345</v>
       </c>
       <c r="D19">
-        <v>1.020219119542673</v>
+        <v>1.044624728676106</v>
       </c>
       <c r="E19">
-        <v>1.016619809880681</v>
+        <v>1.051532805627314</v>
       </c>
       <c r="F19">
-        <v>1.025543761741424</v>
+        <v>1.057480822386289</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049236940078199</v>
+        <v>1.039893703150304</v>
       </c>
       <c r="J19">
-        <v>1.021227453445108</v>
+        <v>1.040226187034627</v>
       </c>
       <c r="K19">
-        <v>1.033635016099025</v>
+        <v>1.047905100504026</v>
       </c>
       <c r="L19">
-        <v>1.030094661400166</v>
+        <v>1.054790123951782</v>
       </c>
       <c r="M19">
-        <v>1.038873416935107</v>
+        <v>1.060718555719161</v>
       </c>
       <c r="N19">
-        <v>1.022677713565425</v>
+        <v>1.041703427535827</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9922866089203819</v>
+        <v>1.033796409562823</v>
       </c>
       <c r="D20">
-        <v>1.018829442176246</v>
+        <v>1.044353583124884</v>
       </c>
       <c r="E20">
-        <v>1.015075770392619</v>
+        <v>1.051208882472396</v>
       </c>
       <c r="F20">
-        <v>1.02396941439607</v>
+        <v>1.057160257901787</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048650628377908</v>
+        <v>1.039813903952092</v>
       </c>
       <c r="J20">
-        <v>1.020118141453892</v>
+        <v>1.040007388385195</v>
       </c>
       <c r="K20">
-        <v>1.032549086382669</v>
+        <v>1.047698197297882</v>
       </c>
       <c r="L20">
-        <v>1.028858611115767</v>
+        <v>1.054530136029145</v>
       </c>
       <c r="M20">
-        <v>1.037603489837725</v>
+        <v>1.06046150092688</v>
       </c>
       <c r="N20">
-        <v>1.021566826223942</v>
+        <v>1.041484318167217</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9863565483286231</v>
+        <v>1.032685776602063</v>
       </c>
       <c r="D21">
-        <v>1.01422485537006</v>
+        <v>1.043471956021678</v>
       </c>
       <c r="E21">
-        <v>1.009971403313718</v>
+        <v>1.050157064375477</v>
       </c>
       <c r="F21">
-        <v>1.018758658842117</v>
+        <v>1.056118722879514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046688617397022</v>
+        <v>1.039552177472955</v>
       </c>
       <c r="J21">
-        <v>1.0164359831164</v>
+        <v>1.039295524742885</v>
       </c>
       <c r="K21">
-        <v>1.028941653583425</v>
+        <v>1.047024506651937</v>
       </c>
       <c r="L21">
-        <v>1.024766295277539</v>
+        <v>1.05368530020441</v>
       </c>
       <c r="M21">
-        <v>1.033393149424446</v>
+        <v>1.05962556173848</v>
       </c>
       <c r="N21">
-        <v>1.017879438799262</v>
+        <v>1.040771443596883</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9825337106223921</v>
+        <v>1.031987707781839</v>
       </c>
       <c r="D22">
-        <v>1.011260266442188</v>
+        <v>1.042917565853151</v>
       </c>
       <c r="E22">
-        <v>1.006694021978079</v>
+        <v>1.049496737258617</v>
       </c>
       <c r="F22">
-        <v>1.015408150081748</v>
+        <v>1.055464373264097</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045410662460901</v>
+        <v>1.03938586573419</v>
       </c>
       <c r="J22">
-        <v>1.014060130425675</v>
+        <v>1.038847546408606</v>
       </c>
       <c r="K22">
-        <v>1.026611907667505</v>
+        <v>1.046600146518273</v>
       </c>
       <c r="L22">
-        <v>1.022134025230841</v>
+        <v>1.053154437540929</v>
       </c>
       <c r="M22">
-        <v>1.030680425958882</v>
+        <v>1.05909980271817</v>
       </c>
       <c r="N22">
-        <v>1.015500212125202</v>
+        <v>1.040322829081985</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9845695331122835</v>
+        <v>1.032357745300593</v>
       </c>
       <c r="D23">
-        <v>1.012838648043151</v>
+        <v>1.043211465435525</v>
       </c>
       <c r="E23">
-        <v>1.008438093823914</v>
+        <v>1.049846694684219</v>
       </c>
       <c r="F23">
-        <v>1.017191593932814</v>
+        <v>1.055811208158325</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046092439305136</v>
+        <v>1.039474196816682</v>
       </c>
       <c r="J23">
-        <v>1.015325554743868</v>
+        <v>1.039085066030751</v>
       </c>
       <c r="K23">
-        <v>1.02785296519631</v>
+        <v>1.046825181909761</v>
       </c>
       <c r="L23">
-        <v>1.023535240576788</v>
+        <v>1.053435827317849</v>
       </c>
       <c r="M23">
-        <v>1.032124896836395</v>
+        <v>1.059378533408193</v>
       </c>
       <c r="N23">
-        <v>1.016767433491073</v>
+        <v>1.040560686009238</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9923844961112701</v>
+        <v>1.033815033341818</v>
       </c>
       <c r="D24">
-        <v>1.018905505656315</v>
+        <v>1.044368362348825</v>
       </c>
       <c r="E24">
-        <v>1.015160239240041</v>
+        <v>1.051226533086552</v>
       </c>
       <c r="F24">
-        <v>1.024055564273152</v>
+        <v>1.057177727850594</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048682792200418</v>
+        <v>1.039818262061753</v>
       </c>
       <c r="J24">
-        <v>1.020178883321719</v>
+        <v>1.040019316021071</v>
       </c>
       <c r="K24">
-        <v>1.032608558949913</v>
+        <v>1.047709478460276</v>
       </c>
       <c r="L24">
-        <v>1.028926253816957</v>
+        <v>1.054544305155091</v>
       </c>
       <c r="M24">
-        <v>1.037673008256318</v>
+        <v>1.060475512593072</v>
       </c>
       <c r="N24">
-        <v>1.02162765435219</v>
+        <v>1.041496262741704</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001072385392753</v>
+        <v>1.035507122216073</v>
       </c>
       <c r="D25">
-        <v>1.025662857239986</v>
+        <v>1.045710508560443</v>
       </c>
       <c r="E25">
-        <v>1.022685209688214</v>
+        <v>1.052832042876469</v>
       </c>
       <c r="F25">
-        <v>1.031719319867532</v>
+        <v>1.058765658638641</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051505393716514</v>
+        <v>1.040209876539558</v>
       </c>
       <c r="J25">
-        <v>1.025563713310147</v>
+        <v>1.041101691249442</v>
       </c>
       <c r="K25">
-        <v>1.037875436696348</v>
+        <v>1.048732214227779</v>
       </c>
       <c r="L25">
-        <v>1.034941285567497</v>
+        <v>1.055831990048814</v>
       </c>
       <c r="M25">
-        <v>1.043844409604882</v>
+        <v>1.061747720393922</v>
       </c>
       <c r="N25">
-        <v>1.02702013141685</v>
+        <v>1.04258017506705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_91/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036857507403616</v>
+        <v>1.007724331815264</v>
       </c>
       <c r="D2">
-        <v>1.046780663854478</v>
+        <v>1.030843998878912</v>
       </c>
       <c r="E2">
-        <v>1.054116006506777</v>
+        <v>1.028485371674385</v>
       </c>
       <c r="F2">
-        <v>1.060033889811393</v>
+        <v>1.037610703207273</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040516035518783</v>
+        <v>1.053618554240794</v>
       </c>
       <c r="J2">
-        <v>1.041963539277031</v>
+        <v>1.02967643870259</v>
       </c>
       <c r="K2">
-        <v>1.049545140608949</v>
+        <v>1.041889722352983</v>
       </c>
       <c r="L2">
-        <v>1.056860104761352</v>
+        <v>1.039561626936208</v>
       </c>
       <c r="M2">
-        <v>1.062761770054698</v>
+        <v>1.048569795611727</v>
       </c>
       <c r="N2">
-        <v>1.043443247017693</v>
+        <v>1.031138697351086</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037838452201062</v>
+        <v>1.012406577300175</v>
       </c>
       <c r="D3">
-        <v>1.047557477096394</v>
+        <v>1.034493857515532</v>
       </c>
       <c r="E3">
-        <v>1.055050238333114</v>
+        <v>1.032589082509349</v>
       </c>
       <c r="F3">
-        <v>1.060955706145722</v>
+        <v>1.041769935947838</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040734733412392</v>
+        <v>1.055077130352084</v>
       </c>
       <c r="J3">
-        <v>1.042588464149037</v>
+        <v>1.032564646976107</v>
       </c>
       <c r="K3">
-        <v>1.050133756142794</v>
+        <v>1.044703615859725</v>
       </c>
       <c r="L3">
-        <v>1.057607206240048</v>
+        <v>1.042821292314406</v>
       </c>
       <c r="M3">
-        <v>1.063497661035381</v>
+        <v>1.051894865593387</v>
       </c>
       <c r="N3">
-        <v>1.044069059354697</v>
+        <v>1.034031007211633</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03847339291383</v>
+        <v>1.015371989968321</v>
       </c>
       <c r="D4">
-        <v>1.048060021635597</v>
+        <v>1.036806356786538</v>
       </c>
       <c r="E4">
-        <v>1.055655649520737</v>
+        <v>1.035197432961839</v>
       </c>
       <c r="F4">
-        <v>1.061552624565994</v>
+        <v>1.044409427693517</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040874576144315</v>
+        <v>1.055987181430962</v>
       </c>
       <c r="J4">
-        <v>1.042992433698688</v>
+        <v>1.034390488053273</v>
       </c>
       <c r="K4">
-        <v>1.050513865539294</v>
+        <v>1.046479964091602</v>
       </c>
       <c r="L4">
-        <v>1.058090902661315</v>
+        <v>1.04488883365222</v>
       </c>
       <c r="M4">
-        <v>1.06397364162705</v>
+        <v>1.053999861191382</v>
       </c>
       <c r="N4">
-        <v>1.044473602587445</v>
+        <v>1.035859441192556</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038740370155439</v>
+        <v>1.016603811436537</v>
       </c>
       <c r="D5">
-        <v>1.048271264894498</v>
+        <v>1.037767124853161</v>
       </c>
       <c r="E5">
-        <v>1.055910378798995</v>
+        <v>1.036283119802468</v>
       </c>
       <c r="F5">
-        <v>1.061803673575277</v>
+        <v>1.045507084374953</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040932965770764</v>
+        <v>1.056361870777926</v>
       </c>
       <c r="J5">
-        <v>1.043162166294804</v>
+        <v>1.035148095357919</v>
       </c>
       <c r="K5">
-        <v>1.05067347965812</v>
+        <v>1.047216415032891</v>
       </c>
       <c r="L5">
-        <v>1.058294312682875</v>
+        <v>1.045748375128808</v>
       </c>
       <c r="M5">
-        <v>1.06417369731897</v>
+        <v>1.05487400550755</v>
       </c>
       <c r="N5">
-        <v>1.044643576223315</v>
+        <v>1.036618124386473</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03878519961518</v>
+        <v>1.016809785276778</v>
       </c>
       <c r="D6">
-        <v>1.048306731980527</v>
+        <v>1.037927783638523</v>
       </c>
       <c r="E6">
-        <v>1.05595316150357</v>
+        <v>1.036464785454032</v>
       </c>
       <c r="F6">
-        <v>1.061845831901415</v>
+        <v>1.04569069468024</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040942746157349</v>
+        <v>1.056424324861514</v>
       </c>
       <c r="J6">
-        <v>1.043190659480776</v>
+        <v>1.035274725038783</v>
       </c>
       <c r="K6">
-        <v>1.050700268761966</v>
+        <v>1.047339471605509</v>
       </c>
       <c r="L6">
-        <v>1.058328469846404</v>
+        <v>1.045892139037375</v>
       </c>
       <c r="M6">
-        <v>1.064207284789912</v>
+        <v>1.055020154894272</v>
       </c>
       <c r="N6">
-        <v>1.04467210987288</v>
+        <v>1.036744933896008</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038476960088331</v>
+        <v>1.015388507211552</v>
       </c>
       <c r="D7">
-        <v>1.048062844383858</v>
+        <v>1.036819238956174</v>
       </c>
       <c r="E7">
-        <v>1.055659052384852</v>
+        <v>1.035211982140885</v>
       </c>
       <c r="F7">
-        <v>1.061555978686043</v>
+        <v>1.044424141192532</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040875357922851</v>
+        <v>1.055992218839489</v>
       </c>
       <c r="J7">
-        <v>1.042994702052926</v>
+        <v>1.034400650022526</v>
       </c>
       <c r="K7">
-        <v>1.050515999034611</v>
+        <v>1.046489844758521</v>
       </c>
       <c r="L7">
-        <v>1.058093620385612</v>
+        <v>1.044900356397096</v>
       </c>
       <c r="M7">
-        <v>1.063976314965219</v>
+        <v>1.054011583522614</v>
       </c>
       <c r="N7">
-        <v>1.044475874163006</v>
+        <v>1.035869617592971</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03718897970506</v>
+        <v>1.009320380906529</v>
       </c>
       <c r="D8">
-        <v>1.047043212671406</v>
+        <v>1.032087904070647</v>
       </c>
       <c r="E8">
-        <v>1.054431547292069</v>
+        <v>1.029882220281151</v>
       </c>
       <c r="F8">
-        <v>1.060345329787907</v>
+        <v>1.039027321204764</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04059029080638</v>
+        <v>1.054118587094814</v>
       </c>
       <c r="J8">
-        <v>1.042174817640416</v>
+        <v>1.030661630524214</v>
       </c>
       <c r="K8">
-        <v>1.049744223669719</v>
+        <v>1.042850082313614</v>
       </c>
       <c r="L8">
-        <v>1.05711253430876</v>
+        <v>1.040672077381341</v>
       </c>
       <c r="M8">
-        <v>1.063010506588254</v>
+        <v>1.049703371407051</v>
       </c>
       <c r="N8">
-        <v>1.043654825420587</v>
+        <v>1.032125288258099</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03492098243166</v>
+        <v>0.9981083336076078</v>
       </c>
       <c r="D9">
-        <v>1.045245734991427</v>
+        <v>1.023356098812541</v>
       </c>
       <c r="E9">
-        <v>1.052275478659146</v>
+        <v>1.020111618479317</v>
       </c>
       <c r="F9">
-        <v>1.058215447420282</v>
+        <v>1.029100759591168</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040075206248577</v>
+        <v>1.050549835866899</v>
       </c>
       <c r="J9">
-        <v>1.040727057215955</v>
+        <v>1.023728068790359</v>
       </c>
       <c r="K9">
-        <v>1.048378444068919</v>
+        <v>1.036081273430532</v>
       </c>
       <c r="L9">
-        <v>1.055385862065512</v>
+        <v>1.032886613295582</v>
       </c>
       <c r="M9">
-        <v>1.06130721880536</v>
+        <v>1.041738704102643</v>
       </c>
       <c r="N9">
-        <v>1.042205009010264</v>
+        <v>1.025181880071292</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033410087386366</v>
+        <v>0.9902446594475034</v>
       </c>
       <c r="D10">
-        <v>1.04404697699615</v>
+        <v>1.017243141819185</v>
       </c>
       <c r="E10">
-        <v>1.050842844948392</v>
+        <v>1.013315304798478</v>
       </c>
       <c r="F10">
-        <v>1.056797906346614</v>
+        <v>1.02217331604555</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039723271634587</v>
+        <v>1.047977986454766</v>
       </c>
       <c r="J10">
-        <v>1.039759897596977</v>
+        <v>1.018850744047088</v>
       </c>
       <c r="K10">
-        <v>1.047464068911248</v>
+        <v>1.031307892219185</v>
       </c>
       <c r="L10">
-        <v>1.054236236732658</v>
+        <v>1.027448238249057</v>
       </c>
       <c r="M10">
-        <v>1.060170805906565</v>
+        <v>1.036153441837505</v>
       </c>
       <c r="N10">
-        <v>1.041236475913692</v>
+        <v>1.020297628967449</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03275612145195</v>
+        <v>0.9867376238104023</v>
       </c>
       <c r="D11">
-        <v>1.043527811382191</v>
+        <v>1.014520545464882</v>
       </c>
       <c r="E11">
-        <v>1.05022363887991</v>
+        <v>1.010298667238809</v>
       </c>
       <c r="F11">
-        <v>1.056184674435993</v>
+        <v>1.019093021908853</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03956886021862</v>
+        <v>1.046815466908841</v>
       </c>
       <c r="J11">
-        <v>1.039340644583111</v>
+        <v>1.016672733994699</v>
       </c>
       <c r="K11">
-        <v>1.047067230603705</v>
+        <v>1.029173724258014</v>
       </c>
       <c r="L11">
-        <v>1.053738801750469</v>
+        <v>1.025028944530446</v>
       </c>
       <c r="M11">
-        <v>1.05967852829511</v>
+        <v>1.03366363587943</v>
       </c>
       <c r="N11">
-        <v>1.040816627512457</v>
+        <v>1.018116525890964</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032513249135847</v>
+        <v>0.9854187288641922</v>
       </c>
       <c r="D12">
-        <v>1.043334956891971</v>
+        <v>1.013497295253125</v>
       </c>
       <c r="E12">
-        <v>1.049993809651554</v>
+        <v>1.009166448289299</v>
       </c>
       <c r="F12">
-        <v>1.055956979954021</v>
+        <v>1.017936084066318</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03951120175398</v>
+        <v>1.046376015989329</v>
       </c>
       <c r="J12">
-        <v>1.039184845911267</v>
+        <v>1.015853276095445</v>
       </c>
       <c r="K12">
-        <v>1.046919691597312</v>
+        <v>1.028370397719862</v>
       </c>
       <c r="L12">
-        <v>1.05355408733167</v>
+        <v>1.024120115766251</v>
       </c>
       <c r="M12">
-        <v>1.059495644857996</v>
+        <v>1.03272753971598</v>
       </c>
       <c r="N12">
-        <v>1.040660607588629</v>
+        <v>1.0172959042675</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032565344266123</v>
+        <v>0.9857023857444694</v>
       </c>
       <c r="D13">
-        <v>1.043376325417755</v>
+        <v>1.013717336931886</v>
       </c>
       <c r="E13">
-        <v>1.050043101023328</v>
+        <v>1.009409853217628</v>
       </c>
       <c r="F13">
-        <v>1.056005817231681</v>
+        <v>1.018184840577645</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039523583402272</v>
+        <v>1.046470630358413</v>
       </c>
       <c r="J13">
-        <v>1.039218268386865</v>
+        <v>1.016029534121954</v>
       </c>
       <c r="K13">
-        <v>1.046951345337902</v>
+        <v>1.028543202093384</v>
       </c>
       <c r="L13">
-        <v>1.053593706693885</v>
+        <v>1.024315532631477</v>
       </c>
       <c r="M13">
-        <v>1.059534875301175</v>
+        <v>1.03292885486796</v>
       </c>
       <c r="N13">
-        <v>1.040694077527975</v>
+        <v>1.017472412600624</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032736044737052</v>
+        <v>0.9866289399838662</v>
       </c>
       <c r="D14">
-        <v>1.04351187023424</v>
+        <v>1.014436210767972</v>
       </c>
       <c r="E14">
-        <v>1.050204637619573</v>
+        <v>1.010205320189917</v>
       </c>
       <c r="F14">
-        <v>1.056165851354774</v>
+        <v>1.018997653746962</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039564100334015</v>
+        <v>1.046779299375754</v>
       </c>
       <c r="J14">
-        <v>1.039327767628978</v>
+        <v>1.016605213613184</v>
       </c>
       <c r="K14">
-        <v>1.047055037744776</v>
+        <v>1.029107540299822</v>
       </c>
       <c r="L14">
-        <v>1.053723532069905</v>
+        <v>1.02495403154238</v>
       </c>
       <c r="M14">
-        <v>1.059663411691861</v>
+        <v>1.033586491141008</v>
       </c>
       <c r="N14">
-        <v>1.040803732271573</v>
+        <v>1.018048909622763</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032841224211698</v>
+        <v>0.9871976425133465</v>
       </c>
       <c r="D15">
-        <v>1.0435953821437</v>
+        <v>1.014877529869153</v>
       </c>
       <c r="E15">
-        <v>1.050304188404091</v>
+        <v>1.010693863300044</v>
       </c>
       <c r="F15">
-        <v>1.056264465241622</v>
+        <v>1.019496740822329</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039589023992363</v>
+        <v>1.046968459095633</v>
       </c>
       <c r="J15">
-        <v>1.039395224544654</v>
+        <v>1.01695850815941</v>
       </c>
       <c r="K15">
-        <v>1.047118908115899</v>
+        <v>1.029453827441412</v>
       </c>
       <c r="L15">
-        <v>1.053803529095821</v>
+        <v>1.025346064831809</v>
       </c>
       <c r="M15">
-        <v>1.059742603308215</v>
+        <v>1.033990171818124</v>
       </c>
       <c r="N15">
-        <v>1.040871284983806</v>
+        <v>1.018402705887768</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033453494501337</v>
+        <v>0.9904751853018241</v>
       </c>
       <c r="D16">
-        <v>1.04408143038861</v>
+        <v>1.017422188243591</v>
       </c>
       <c r="E16">
-        <v>1.050883963600487</v>
+        <v>1.013513902546035</v>
       </c>
       <c r="F16">
-        <v>1.056838616690245</v>
+        <v>1.022375990180048</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039733476866077</v>
+        <v>1.048054084345298</v>
       </c>
       <c r="J16">
-        <v>1.039787712265592</v>
+        <v>1.018993855486655</v>
       </c>
       <c r="K16">
-        <v>1.047490386704309</v>
+        <v>1.031448071238481</v>
       </c>
       <c r="L16">
-        <v>1.054269257527076</v>
+        <v>1.027607398060359</v>
       </c>
       <c r="M16">
-        <v>1.060203472546277</v>
+        <v>1.036317132575148</v>
       </c>
       <c r="N16">
-        <v>1.041264330082326</v>
+        <v>1.020440943641674</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033837625829864</v>
+        <v>0.9925031753290747</v>
       </c>
       <c r="D17">
-        <v>1.044386290810365</v>
+        <v>1.018997727951648</v>
       </c>
       <c r="E17">
-        <v>1.051247945613132</v>
+        <v>1.015262659242883</v>
       </c>
       <c r="F17">
-        <v>1.057198920843772</v>
+        <v>1.024160019005185</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039823547506007</v>
+        <v>1.048721777732647</v>
       </c>
       <c r="J17">
-        <v>1.040033785005863</v>
+        <v>1.020252525380293</v>
       </c>
       <c r="K17">
-        <v>1.047723162923429</v>
+        <v>1.032680660449204</v>
       </c>
       <c r="L17">
-        <v>1.054561493813851</v>
+        <v>1.029008268294212</v>
       </c>
       <c r="M17">
-        <v>1.060492509867132</v>
+        <v>1.037757293612984</v>
       </c>
       <c r="N17">
-        <v>1.041510752274113</v>
+        <v>1.021701400990934</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03406170834437</v>
+        <v>0.9936762890479004</v>
       </c>
       <c r="D18">
-        <v>1.044564101450759</v>
+        <v>1.019909457036842</v>
       </c>
       <c r="E18">
-        <v>1.05146035948037</v>
+        <v>1.01627560393205</v>
       </c>
       <c r="F18">
-        <v>1.057409135346538</v>
+        <v>1.025192876793924</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039875889116401</v>
+        <v>1.049106535597695</v>
       </c>
       <c r="J18">
-        <v>1.040177270016233</v>
+        <v>1.020980345817152</v>
       </c>
       <c r="K18">
-        <v>1.047858849707751</v>
+        <v>1.033393154386997</v>
       </c>
       <c r="L18">
-        <v>1.054731985003545</v>
+        <v>1.029819191089422</v>
       </c>
       <c r="M18">
-        <v>1.060661080765654</v>
+        <v>1.038590470171888</v>
       </c>
       <c r="N18">
-        <v>1.041654441049656</v>
+        <v>1.022430255016295</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034138118953345</v>
+        <v>0.9940746581253399</v>
       </c>
       <c r="D19">
-        <v>1.044624728676106</v>
+        <v>1.020219119542675</v>
       </c>
       <c r="E19">
-        <v>1.051532805627314</v>
+        <v>1.016619809880682</v>
       </c>
       <c r="F19">
-        <v>1.057480822386289</v>
+        <v>1.025543761741426</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039893703150304</v>
+        <v>1.0492369400782</v>
       </c>
       <c r="J19">
-        <v>1.040226187034627</v>
+        <v>1.021227453445109</v>
       </c>
       <c r="K19">
-        <v>1.047905100504026</v>
+        <v>1.033635016099027</v>
       </c>
       <c r="L19">
-        <v>1.054790123951782</v>
+        <v>1.030094661400167</v>
       </c>
       <c r="M19">
-        <v>1.060718555719161</v>
+        <v>1.038873416935108</v>
       </c>
       <c r="N19">
-        <v>1.041703427535827</v>
+        <v>1.022677713565427</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033796409562823</v>
+        <v>0.9922866089203825</v>
       </c>
       <c r="D20">
-        <v>1.044353583124884</v>
+        <v>1.018829442176246</v>
       </c>
       <c r="E20">
-        <v>1.051208882472396</v>
+        <v>1.01507577039262</v>
       </c>
       <c r="F20">
-        <v>1.057160257901787</v>
+        <v>1.023969414396071</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039813903952092</v>
+        <v>1.048650628377908</v>
       </c>
       <c r="J20">
-        <v>1.040007388385195</v>
+        <v>1.020118141453892</v>
       </c>
       <c r="K20">
-        <v>1.047698197297882</v>
+        <v>1.032549086382669</v>
       </c>
       <c r="L20">
-        <v>1.054530136029145</v>
+        <v>1.028858611115767</v>
       </c>
       <c r="M20">
-        <v>1.06046150092688</v>
+        <v>1.037603489837726</v>
       </c>
       <c r="N20">
-        <v>1.041484318167217</v>
+        <v>1.021566826223943</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032685776602063</v>
+        <v>0.9863565483286224</v>
       </c>
       <c r="D21">
-        <v>1.043471956021678</v>
+        <v>1.014224855370059</v>
       </c>
       <c r="E21">
-        <v>1.050157064375477</v>
+        <v>1.009971403313717</v>
       </c>
       <c r="F21">
-        <v>1.056118722879514</v>
+        <v>1.018758658842116</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039552177472955</v>
+        <v>1.046688617397022</v>
       </c>
       <c r="J21">
-        <v>1.039295524742885</v>
+        <v>1.0164359831164</v>
       </c>
       <c r="K21">
-        <v>1.047024506651937</v>
+        <v>1.028941653583424</v>
       </c>
       <c r="L21">
-        <v>1.05368530020441</v>
+        <v>1.024766295277539</v>
       </c>
       <c r="M21">
-        <v>1.05962556173848</v>
+        <v>1.033393149424445</v>
       </c>
       <c r="N21">
-        <v>1.040771443596883</v>
+        <v>1.017879438799262</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031987707781839</v>
+        <v>0.9825337106223925</v>
       </c>
       <c r="D22">
-        <v>1.042917565853151</v>
+        <v>1.011260266442188</v>
       </c>
       <c r="E22">
-        <v>1.049496737258617</v>
+        <v>1.006694021978079</v>
       </c>
       <c r="F22">
-        <v>1.055464373264097</v>
+        <v>1.015408150081748</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03938586573419</v>
+        <v>1.045410662460901</v>
       </c>
       <c r="J22">
-        <v>1.038847546408606</v>
+        <v>1.014060130425675</v>
       </c>
       <c r="K22">
-        <v>1.046600146518273</v>
+        <v>1.026611907667505</v>
       </c>
       <c r="L22">
-        <v>1.053154437540929</v>
+        <v>1.022134025230842</v>
       </c>
       <c r="M22">
-        <v>1.05909980271817</v>
+        <v>1.030680425958883</v>
       </c>
       <c r="N22">
-        <v>1.040322829081985</v>
+        <v>1.015500212125203</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032357745300593</v>
+        <v>0.9845695331122841</v>
       </c>
       <c r="D23">
-        <v>1.043211465435525</v>
+        <v>1.012838648043152</v>
       </c>
       <c r="E23">
-        <v>1.049846694684219</v>
+        <v>1.008438093823914</v>
       </c>
       <c r="F23">
-        <v>1.055811208158325</v>
+        <v>1.017191593932815</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039474196816682</v>
+        <v>1.046092439305137</v>
       </c>
       <c r="J23">
-        <v>1.039085066030751</v>
+        <v>1.015325554743868</v>
       </c>
       <c r="K23">
-        <v>1.046825181909761</v>
+        <v>1.02785296519631</v>
       </c>
       <c r="L23">
-        <v>1.053435827317849</v>
+        <v>1.023535240576788</v>
       </c>
       <c r="M23">
-        <v>1.059378533408193</v>
+        <v>1.032124896836396</v>
       </c>
       <c r="N23">
-        <v>1.040560686009238</v>
+        <v>1.016767433491074</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033815033341818</v>
+        <v>0.9923844961112694</v>
       </c>
       <c r="D24">
-        <v>1.044368362348825</v>
+        <v>1.018905505656314</v>
       </c>
       <c r="E24">
-        <v>1.051226533086552</v>
+        <v>1.01516023924004</v>
       </c>
       <c r="F24">
-        <v>1.057177727850594</v>
+        <v>1.024055564273151</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039818262061753</v>
+        <v>1.048682792200417</v>
       </c>
       <c r="J24">
-        <v>1.040019316021071</v>
+        <v>1.020178883321719</v>
       </c>
       <c r="K24">
-        <v>1.047709478460276</v>
+        <v>1.032608558949912</v>
       </c>
       <c r="L24">
-        <v>1.054544305155091</v>
+        <v>1.028926253816956</v>
       </c>
       <c r="M24">
-        <v>1.060475512593072</v>
+        <v>1.037673008256318</v>
       </c>
       <c r="N24">
-        <v>1.041496262741704</v>
+        <v>1.021627654352189</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035507122216073</v>
+        <v>1.001072385392754</v>
       </c>
       <c r="D25">
-        <v>1.045710508560443</v>
+        <v>1.025662857239987</v>
       </c>
       <c r="E25">
-        <v>1.052832042876469</v>
+        <v>1.022685209688215</v>
       </c>
       <c r="F25">
-        <v>1.058765658638641</v>
+        <v>1.031719319867532</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040209876539558</v>
+        <v>1.051505393716514</v>
       </c>
       <c r="J25">
-        <v>1.041101691249442</v>
+        <v>1.025563713310148</v>
       </c>
       <c r="K25">
-        <v>1.048732214227779</v>
+        <v>1.037875436696348</v>
       </c>
       <c r="L25">
-        <v>1.055831990048814</v>
+        <v>1.034941285567497</v>
       </c>
       <c r="M25">
-        <v>1.061747720393922</v>
+        <v>1.043844409604883</v>
       </c>
       <c r="N25">
-        <v>1.04258017506705</v>
+        <v>1.027020131416851</v>
       </c>
     </row>
   </sheetData>
